--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Sema7a</t>
+  </si>
+  <si>
+    <t>Itga1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema7a</t>
-  </si>
-  <si>
-    <t>Itga1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H2">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I2">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J2">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N2">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O2">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P2">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q2">
-        <v>1419.741725455559</v>
+        <v>2489.801848461639</v>
       </c>
       <c r="R2">
-        <v>12777.67552910003</v>
+        <v>22408.21663615475</v>
       </c>
       <c r="S2">
-        <v>0.4849933409216856</v>
+        <v>0.4851652750488427</v>
       </c>
       <c r="T2">
-        <v>0.4849933409216856</v>
+        <v>0.4851652750488428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H3">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I3">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J3">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O3">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P3">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q3">
-        <v>88.60876753620265</v>
+        <v>172.9165223595093</v>
       </c>
       <c r="R3">
-        <v>797.4789078258239</v>
+        <v>1556.248701235584</v>
       </c>
       <c r="S3">
-        <v>0.03026935211652418</v>
+        <v>0.03369468625901909</v>
       </c>
       <c r="T3">
-        <v>0.03026935211652418</v>
+        <v>0.03369468625901909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H4">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I4">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J4">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N4">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O4">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P4">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q4">
-        <v>94.29445678784676</v>
+        <v>455.5223728915831</v>
       </c>
       <c r="R4">
-        <v>848.6501110906208</v>
+        <v>4099.701356024248</v>
       </c>
       <c r="S4">
-        <v>0.03221162188021136</v>
+        <v>0.08876354456536242</v>
       </c>
       <c r="T4">
-        <v>0.03221162188021136</v>
+        <v>0.08876354456536244</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H5">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I5">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J5">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N5">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O5">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P5">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q5">
-        <v>642.0003266219261</v>
+        <v>993.5946247819593</v>
       </c>
       <c r="R5">
-        <v>5778.002939597335</v>
+        <v>8942.351623037634</v>
       </c>
       <c r="S5">
-        <v>0.2193116379539186</v>
+        <v>0.1936128410046918</v>
       </c>
       <c r="T5">
-        <v>0.2193116379539186</v>
+        <v>0.1936128410046918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H6">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I6">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J6">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N6">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O6">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P6">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q6">
-        <v>18.01746837655644</v>
+        <v>38.39143240416578</v>
       </c>
       <c r="R6">
-        <v>162.157215389008</v>
+        <v>345.522891637492</v>
       </c>
       <c r="S6">
-        <v>0.006154888615457865</v>
+        <v>0.007480992864309508</v>
       </c>
       <c r="T6">
-        <v>0.006154888615457865</v>
+        <v>0.007480992864309509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.30196633333333</v>
+        <v>59.13309466666666</v>
       </c>
       <c r="H7">
-        <v>90.90589899999999</v>
+        <v>177.399284</v>
       </c>
       <c r="I7">
-        <v>0.7759129089924486</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="J7">
-        <v>0.7759129089924485</v>
+        <v>0.8137859791302779</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N7">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O7">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P7">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q7">
-        <v>8.700260171004889</v>
+        <v>26.01156423713111</v>
       </c>
       <c r="R7">
-        <v>78.30234153904399</v>
+        <v>234.10407813418</v>
       </c>
       <c r="S7">
-        <v>0.002972067504650949</v>
+        <v>0.005068639388052409</v>
       </c>
       <c r="T7">
-        <v>0.002972067504650949</v>
+        <v>0.005068639388052409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>10.533634</v>
       </c>
       <c r="I8">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J8">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N8">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O8">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P8">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q8">
-        <v>164.5112129684493</v>
+        <v>147.8397252393553</v>
       </c>
       <c r="R8">
-        <v>1480.600916716044</v>
+        <v>1330.557527154198</v>
       </c>
       <c r="S8">
-        <v>0.05619813897562641</v>
+        <v>0.02880819652504258</v>
       </c>
       <c r="T8">
-        <v>0.05619813897562641</v>
+        <v>0.02880819652504258</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.533634</v>
       </c>
       <c r="I9">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J9">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O9">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P9">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q9">
         <v>10.26745609124267</v>
@@ -1013,10 +1013,10 @@
         <v>92.40710482118398</v>
       </c>
       <c r="S9">
-        <v>0.003507432192190201</v>
+        <v>0.002000726749254164</v>
       </c>
       <c r="T9">
-        <v>0.003507432192190201</v>
+        <v>0.002000726749254164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>10.533634</v>
       </c>
       <c r="I10">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J10">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N10">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O10">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P10">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q10">
-        <v>10.92627988896511</v>
+        <v>27.04805705332755</v>
       </c>
       <c r="R10">
-        <v>98.33651900068598</v>
+        <v>243.432513479948</v>
       </c>
       <c r="S10">
-        <v>0.003732490841243848</v>
+        <v>0.00527061141348359</v>
       </c>
       <c r="T10">
-        <v>0.003732490841243848</v>
+        <v>0.005270611413483591</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>10.533634</v>
       </c>
       <c r="I11">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J11">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N11">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O11">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P11">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q11">
-        <v>74.39117310215288</v>
+        <v>58.99776980960356</v>
       </c>
       <c r="R11">
-        <v>669.520557919376</v>
+        <v>530.979928286432</v>
       </c>
       <c r="S11">
-        <v>0.02541252604682</v>
+        <v>0.01149636435310311</v>
       </c>
       <c r="T11">
-        <v>0.02541252604682</v>
+        <v>0.01149636435310311</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>10.533634</v>
       </c>
       <c r="I12">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J12">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N12">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O12">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P12">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q12">
-        <v>2.087756895569778</v>
+        <v>2.279610653226889</v>
       </c>
       <c r="R12">
-        <v>18.789812060128</v>
+        <v>20.516495879042</v>
       </c>
       <c r="S12">
-        <v>0.0007131918247241568</v>
+        <v>0.0004442072088027594</v>
       </c>
       <c r="T12">
-        <v>0.0007131918247241568</v>
+        <v>0.0004442072088027595</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,40 +1231,40 @@
         <v>10.533634</v>
       </c>
       <c r="I13">
-        <v>0.08990816535681323</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="J13">
-        <v>0.08990816535681322</v>
+        <v>0.04832107247112669</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N13">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O13">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P13">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q13">
-        <v>1.008134316411556</v>
+        <v>1.544517493325555</v>
       </c>
       <c r="R13">
-        <v>9.073208847703999</v>
+        <v>13.90065743993</v>
       </c>
       <c r="S13">
-        <v>0.0003443854762086055</v>
+        <v>0.0003009662214404881</v>
       </c>
       <c r="T13">
-        <v>0.0003443854762086055</v>
+        <v>0.0003009662214404881</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H14">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I14">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J14">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N14">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O14">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P14">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q14">
-        <v>4.043158927575332</v>
+        <v>5.542666545311</v>
       </c>
       <c r="R14">
-        <v>36.38843034817799</v>
+        <v>49.883998907799</v>
       </c>
       <c r="S14">
-        <v>0.001381170336127788</v>
+        <v>0.001080049539131532</v>
       </c>
       <c r="T14">
-        <v>0.001381170336127788</v>
+        <v>0.001080049539131532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H15">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I15">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J15">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O15">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P15">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q15">
-        <v>0.2523411991786666</v>
+        <v>0.3849377106879999</v>
       </c>
       <c r="R15">
-        <v>2.271070792608</v>
+        <v>3.464439396191999</v>
       </c>
       <c r="S15">
-        <v>8.620145414305982E-05</v>
+        <v>7.500934678717778E-05</v>
       </c>
       <c r="T15">
-        <v>8.620145414305984E-05</v>
+        <v>7.500934678717778E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H16">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I16">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J16">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N16">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O16">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P16">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q16">
-        <v>0.268532978884111</v>
+        <v>1.014060062019333</v>
       </c>
       <c r="R16">
-        <v>2.416796809956999</v>
+        <v>9.126540558174</v>
       </c>
       <c r="S16">
-        <v>9.173267520532145E-05</v>
+        <v>0.0001976007565460029</v>
       </c>
       <c r="T16">
-        <v>9.173267520532146E-05</v>
+        <v>0.0001976007565460029</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H17">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I17">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J17">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N17">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O17">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P17">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q17">
-        <v>1.828296869456888</v>
+        <v>2.211888343557333</v>
       </c>
       <c r="R17">
-        <v>16.454671825112</v>
+        <v>19.906995092016</v>
       </c>
       <c r="S17">
-        <v>0.0006245585313272608</v>
+        <v>0.0004310107718983232</v>
       </c>
       <c r="T17">
-        <v>0.000624558531327261</v>
+        <v>0.0004310107718983232</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H18">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I18">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J18">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N18">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O18">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P18">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q18">
-        <v>0.05131038048177777</v>
+        <v>0.08546499720233333</v>
       </c>
       <c r="R18">
-        <v>0.4617934243359999</v>
+        <v>0.769184974821</v>
       </c>
       <c r="S18">
-        <v>1.752797174840742E-05</v>
+        <v>1.66537947187798E-05</v>
       </c>
       <c r="T18">
-        <v>1.752797174840743E-05</v>
+        <v>1.66537947187798E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.08629433333333332</v>
+        <v>0.131639</v>
       </c>
       <c r="H19">
-        <v>0.258883</v>
+        <v>0.394917</v>
       </c>
       <c r="I19">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="J19">
-        <v>0.002209654860997437</v>
+        <v>0.001811607748767419</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N19">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O19">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P19">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q19">
-        <v>0.02477671392755555</v>
+        <v>0.05790558271833333</v>
       </c>
       <c r="R19">
-        <v>0.222990425348</v>
+        <v>0.5211502444649999</v>
       </c>
       <c r="S19">
-        <v>8.463892445599726E-06</v>
+        <v>1.128353968560264E-05</v>
       </c>
       <c r="T19">
-        <v>8.463892445599726E-06</v>
+        <v>1.128353968560264E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H20">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I20">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J20">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N20">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O20">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P20">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q20">
-        <v>117.2001954071433</v>
+        <v>306.8819619206997</v>
       </c>
       <c r="R20">
-        <v>1054.80175866429</v>
+        <v>2761.937657286297</v>
       </c>
       <c r="S20">
-        <v>0.04003637655218303</v>
+        <v>0.05979932561893538</v>
       </c>
       <c r="T20">
-        <v>0.04003637655218304</v>
+        <v>0.05979932561893539</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H21">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I21">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J21">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O21">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P21">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q21">
-        <v>7.314685962826665</v>
+        <v>21.31292563019733</v>
       </c>
       <c r="R21">
-        <v>65.83217366544</v>
+        <v>191.816330671776</v>
       </c>
       <c r="S21">
-        <v>0.00249874601788289</v>
+        <v>0.00415305797602292</v>
       </c>
       <c r="T21">
-        <v>0.00249874601788289</v>
+        <v>0.00415305797602292</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H22">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I22">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J22">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N22">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O22">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P22">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q22">
-        <v>7.78404167687611</v>
+        <v>56.14567262776912</v>
       </c>
       <c r="R22">
-        <v>70.056375091885</v>
+        <v>505.311053649922</v>
       </c>
       <c r="S22">
-        <v>0.002659081092746229</v>
+        <v>0.01094060184752633</v>
       </c>
       <c r="T22">
-        <v>0.002659081092746229</v>
+        <v>0.01094060184752633</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H23">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I23">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J23">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N23">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O23">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P23">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q23">
-        <v>52.99736028212888</v>
+        <v>122.4660781721831</v>
       </c>
       <c r="R23">
-        <v>476.97624253916</v>
+        <v>1102.194703549648</v>
       </c>
       <c r="S23">
-        <v>0.0181042554166057</v>
+        <v>0.02386386231389118</v>
       </c>
       <c r="T23">
-        <v>0.01810425541660571</v>
+        <v>0.02386386231389118</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H24">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I24">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J24">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N24">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O24">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P24">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q24">
-        <v>1.487348562497778</v>
+        <v>4.731958129284778</v>
       </c>
       <c r="R24">
-        <v>13.38613706248</v>
+        <v>42.58762316356301</v>
       </c>
       <c r="S24">
-        <v>0.0005080882920514289</v>
+        <v>0.0009220740874349257</v>
       </c>
       <c r="T24">
-        <v>0.000508088292051429</v>
+        <v>0.0009220740874349258</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.501438333333333</v>
+        <v>7.288483666666667</v>
       </c>
       <c r="H25">
-        <v>7.504315</v>
+        <v>21.865451</v>
       </c>
       <c r="I25">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="J25">
-        <v>0.06405189262410427</v>
+        <v>0.1003036599130813</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N25">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O25">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P25">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q25">
-        <v>0.7182096390155556</v>
+        <v>3.206070342766111</v>
       </c>
       <c r="R25">
-        <v>6.46388675114</v>
+        <v>28.854633084895</v>
       </c>
       <c r="S25">
-        <v>0.0002453452526349769</v>
+        <v>0.0006247380692705047</v>
       </c>
       <c r="T25">
-        <v>0.0002453452526349769</v>
+        <v>0.0006247380692705047</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H26">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I26">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J26">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N26">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O26">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P26">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q26">
-        <v>113.083570784272</v>
+        <v>109.462853768044</v>
       </c>
       <c r="R26">
-        <v>1017.752137058448</v>
+        <v>985.165683912396</v>
       </c>
       <c r="S26">
-        <v>0.03863010983946372</v>
+        <v>0.0213300410186528</v>
       </c>
       <c r="T26">
-        <v>0.03863010983946372</v>
+        <v>0.0213300410186528</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H27">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I27">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J27">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O27">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P27">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q27">
-        <v>7.057759630592001</v>
+        <v>7.602185697151999</v>
       </c>
       <c r="R27">
-        <v>63.519836675328</v>
+        <v>68.41967127436799</v>
       </c>
       <c r="S27">
-        <v>0.002410978251389119</v>
+        <v>0.001481369498142998</v>
       </c>
       <c r="T27">
-        <v>0.00241097825138912</v>
+        <v>0.001481369498142998</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H28">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I28">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J28">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N28">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O28">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P28">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q28">
-        <v>7.510629354301334</v>
+        <v>20.02680611821066</v>
       </c>
       <c r="R28">
-        <v>67.59566418871201</v>
+        <v>180.241255063896</v>
       </c>
       <c r="S28">
-        <v>0.002565681600854737</v>
+        <v>0.003902443443318548</v>
       </c>
       <c r="T28">
-        <v>0.002565681600854737</v>
+        <v>0.003902443443318548</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H29">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I29">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J29">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N29">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O29">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P29">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q29">
-        <v>51.13584258135467</v>
+        <v>43.68287507876267</v>
       </c>
       <c r="R29">
-        <v>460.222583232192</v>
+        <v>393.145875708864</v>
       </c>
       <c r="S29">
-        <v>0.01746834842542839</v>
+        <v>0.008512088669066895</v>
       </c>
       <c r="T29">
-        <v>0.01746834842542839</v>
+        <v>0.008512088669066897</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H30">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I30">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J30">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N30">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O30">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P30">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q30">
-        <v>1.435105853397334</v>
+        <v>1.687859519342667</v>
       </c>
       <c r="R30">
-        <v>12.915952680576</v>
+        <v>15.190735674084</v>
       </c>
       <c r="S30">
-        <v>0.00049024183056401</v>
+        <v>0.0003288979918027036</v>
       </c>
       <c r="T30">
-        <v>0.00049024183056401</v>
+        <v>0.0003288979918027036</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,14 +2326,14 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.413576</v>
+        <v>2.599756</v>
       </c>
       <c r="H31">
-        <v>7.240728000000001</v>
+        <v>7.799268</v>
       </c>
       <c r="I31">
-        <v>0.0618020875158286</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="J31">
-        <v>0.06180208751582859</v>
+        <v>0.03577768073674663</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N31">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O31">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P31">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q31">
-        <v>0.6929827230186668</v>
+        <v>1.143585002206666</v>
       </c>
       <c r="R31">
-        <v>6.236844507168001</v>
+        <v>10.29226501986</v>
       </c>
       <c r="S31">
-        <v>0.0002367275681286234</v>
+        <v>0.000222840115762681</v>
       </c>
       <c r="T31">
-        <v>0.0002367275681286234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.716467</v>
-      </c>
-      <c r="I32">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J32">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>46.85312199999999</v>
-      </c>
-      <c r="N32">
-        <v>140.559366</v>
-      </c>
-      <c r="O32">
-        <v>0.6250615697984291</v>
-      </c>
-      <c r="P32">
-        <v>0.6250615697984292</v>
-      </c>
-      <c r="Q32">
-        <v>11.18957191999133</v>
-      </c>
-      <c r="R32">
-        <v>100.706147279922</v>
-      </c>
-      <c r="S32">
-        <v>0.003822433173342659</v>
-      </c>
-      <c r="T32">
-        <v>0.00382243317334266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.716467</v>
-      </c>
-      <c r="I33">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J33">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.924192</v>
-      </c>
-      <c r="N33">
-        <v>8.772575999999999</v>
-      </c>
-      <c r="O33">
-        <v>0.03901127531932681</v>
-      </c>
-      <c r="P33">
-        <v>0.03901127531932681</v>
-      </c>
-      <c r="Q33">
-        <v>0.6983623565546666</v>
-      </c>
-      <c r="R33">
-        <v>6.285261208991999</v>
-      </c>
-      <c r="S33">
-        <v>0.0002385652871973658</v>
-      </c>
-      <c r="T33">
-        <v>0.0002385652871973658</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.716467</v>
-      </c>
-      <c r="I34">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J34">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>3.111826333333333</v>
-      </c>
-      <c r="N34">
-        <v>9.335478999999999</v>
-      </c>
-      <c r="O34">
-        <v>0.0415144812090307</v>
-      </c>
-      <c r="P34">
-        <v>0.04151448120903071</v>
-      </c>
-      <c r="Q34">
-        <v>0.7431736258547778</v>
-      </c>
-      <c r="R34">
-        <v>6.688562632692999</v>
-      </c>
-      <c r="S34">
-        <v>0.0002538731187692164</v>
-      </c>
-      <c r="T34">
-        <v>0.0002538731187692164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.716467</v>
-      </c>
-      <c r="I35">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J35">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>21.18675466666667</v>
-      </c>
-      <c r="N35">
-        <v>63.560264</v>
-      </c>
-      <c r="O35">
-        <v>0.2826498121273724</v>
-      </c>
-      <c r="P35">
-        <v>0.2826498121273725</v>
-      </c>
-      <c r="Q35">
-        <v>5.059870185254222</v>
-      </c>
-      <c r="R35">
-        <v>45.53883166728799</v>
-      </c>
-      <c r="S35">
-        <v>0.001728485753272516</v>
-      </c>
-      <c r="T35">
-        <v>0.001728485753272516</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.716467</v>
-      </c>
-      <c r="I36">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J36">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.5945973333333333</v>
-      </c>
-      <c r="N36">
-        <v>1.783792</v>
-      </c>
-      <c r="O36">
-        <v>0.007932447758151381</v>
-      </c>
-      <c r="P36">
-        <v>0.007932447758151382</v>
-      </c>
-      <c r="Q36">
-        <v>0.1420031225404444</v>
-      </c>
-      <c r="R36">
-        <v>1.278028102864</v>
-      </c>
-      <c r="S36">
-        <v>4.850922360551377E-05</v>
-      </c>
-      <c r="T36">
-        <v>4.850922360551378E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.2388223333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.716467</v>
-      </c>
-      <c r="I37">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="J37">
-        <v>0.006115290649808025</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.2871186666666667</v>
-      </c>
-      <c r="N37">
-        <v>0.861356</v>
-      </c>
-      <c r="O37">
-        <v>0.003830413787689507</v>
-      </c>
-      <c r="P37">
-        <v>0.003830413787689508</v>
-      </c>
-      <c r="Q37">
-        <v>0.06857034991688889</v>
-      </c>
-      <c r="R37">
-        <v>0.617133149252</v>
-      </c>
-      <c r="S37">
-        <v>2.342409362075339E-05</v>
-      </c>
-      <c r="T37">
-        <v>2.342409362075339E-05</v>
+        <v>0.000222840115762681</v>
       </c>
     </row>
   </sheetData>
